--- a/data/(4,1)/W++/summary_by_file_odd_even_general.xlsx
+++ b/data/(4,1)/W++/summary_by_file_odd_even_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/2-1/Project/data/(4^J1)/W^M^M/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d28beaa99568fc0f/Documents/Project/data/(4^J1)/W^M^M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_71C913B2D3305C74F3BA2411595ED87656CD4BF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3215A463-B93C-4213-9C90-E8BF2D68760F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2E2550B8D3F0D01B3FD83B11595ED87656CC5CE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07C2E58C-8E17-48B3-91CC-A19DC2876B96}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2445" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -477,7 +477,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>42.03</v>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -488,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,10 +500,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>58.36</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -511,19 +511,22 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>67.17</v>
+        <v>5.79</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -531,22 +534,19 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>60.94</v>
-      </c>
-      <c r="F6">
-        <v>0.76470588235294112</v>
+        <v>16.53</v>
       </c>
       <c r="G6">
-        <v>0.79591836734693877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -554,16 +554,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>124.69</v>
+        <v>22.69</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -574,19 +577,16 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>138.69999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>42.16</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -597,19 +597,22 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>142.47</v>
+        <v>60.13</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,22 +620,19 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>256.45</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>48.18</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -640,19 +640,22 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>207.97</v>
+        <v>63.3</v>
+      </c>
+      <c r="F11">
+        <v>0.80851063829787229</v>
       </c>
       <c r="G11">
-        <v>0.65</v>
+        <v>0.69811320754716977</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -660,22 +663,19 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>291.08</v>
-      </c>
-      <c r="F12">
-        <v>0.31707317073170732</v>
+        <v>97.15</v>
       </c>
       <c r="G12">
-        <v>0.22033898305084751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -683,19 +683,22 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>320.93</v>
+        <v>114.94</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -703,22 +706,19 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>0.87</v>
+        <v>0.43</v>
       </c>
       <c r="D14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>216.54</v>
-      </c>
-      <c r="F14">
-        <v>0.83333333333333337</v>
+        <v>127.24</v>
       </c>
       <c r="G14">
-        <v>0.91304347826086951</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,19 +726,22 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>426.79</v>
+        <v>180.08</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,22 +749,19 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D16">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>455.1</v>
-      </c>
-      <c r="F16">
-        <v>0.41509433962264147</v>
+        <v>180.57</v>
       </c>
       <c r="G16">
-        <v>0.38297872340425532</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -769,19 +769,22 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>262.89</v>
+        <v>226.76</v>
+      </c>
+      <c r="F17">
+        <v>0.32608695652173908</v>
       </c>
       <c r="G17">
-        <v>0.77</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -789,22 +792,19 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E18">
-        <v>473.64</v>
-      </c>
-      <c r="F18">
-        <v>0.19148936170212769</v>
+        <v>266.08</v>
       </c>
       <c r="G18">
-        <v>0.20754716981132079</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -812,19 +812,22 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="D19">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>316.61</v>
+        <v>145.86000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.92682926829268297</v>
       </c>
       <c r="G19">
-        <v>0.78</v>
+        <v>0.89830508474576276</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -832,22 +835,19 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>0.69</v>
+        <v>0.09</v>
       </c>
       <c r="D20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E20">
-        <v>447.6</v>
-      </c>
-      <c r="F20">
-        <v>0.62745098039215685</v>
+        <v>353.78</v>
       </c>
       <c r="G20">
-        <v>0.75510204081632648</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -855,19 +855,22 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="D21">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E21">
-        <v>515.72</v>
+        <v>345.02</v>
+      </c>
+      <c r="F21">
+        <v>0.37254901960784309</v>
       </c>
       <c r="G21">
-        <v>0.52</v>
+        <v>0.38775510204081631</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -875,22 +878,19 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>0.94</v>
+        <v>0.78</v>
       </c>
       <c r="D22">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E22">
-        <v>253.41</v>
-      </c>
-      <c r="F22">
-        <v>0.96296296296296291</v>
+        <v>262</v>
       </c>
       <c r="G22">
-        <v>0.91304347826086951</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,19 +898,22 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>0.63</v>
+        <v>0.18</v>
       </c>
       <c r="D23">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>529.77</v>
+        <v>436.66</v>
+      </c>
+      <c r="F23">
+        <v>0.22222222222222221</v>
       </c>
       <c r="G23">
-        <v>0.63</v>
+        <v>0.13043478260869559</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -918,22 +921,19 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="D24">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>434.8</v>
-      </c>
-      <c r="F24">
-        <v>0.9</v>
+        <v>247.57</v>
       </c>
       <c r="G24">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,19 +941,22 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
       <c r="D25">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E25">
-        <v>300.38</v>
+        <v>377.6</v>
+      </c>
+      <c r="F25">
+        <v>0.79245283018867929</v>
       </c>
       <c r="G25">
-        <v>0.97</v>
+        <v>0.78723404255319152</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -961,22 +964,19 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="D26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E26">
-        <v>537.66999999999996</v>
-      </c>
-      <c r="F26">
-        <v>0.80392156862745101</v>
+        <v>499.04</v>
       </c>
       <c r="G26">
-        <v>0.89795918367346939</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -984,19 +984,22 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="D27">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>428.74</v>
+        <v>210.31</v>
+      </c>
+      <c r="F27">
+        <v>0.91489361702127658</v>
       </c>
       <c r="G27">
-        <v>0.96</v>
+        <v>0.98113207547169812</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,22 +1007,19 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
       <c r="D28">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>394.55</v>
-      </c>
-      <c r="F28">
-        <v>0.91489361702127658</v>
+        <v>464.5</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1027,19 +1027,22 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="D29">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>385.63</v>
+        <v>377.88</v>
+      </c>
+      <c r="F29">
+        <v>0.85964912280701755</v>
       </c>
       <c r="G29">
-        <v>0.97</v>
+        <v>0.79069767441860461</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1047,22 +1050,19 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>413.73</v>
-      </c>
-      <c r="F30">
-        <v>0.97916666666666663</v>
+        <v>279.54000000000002</v>
       </c>
       <c r="G30">
-        <v>0.98076923076923073</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1070,19 +1070,22 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="D31">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="E31">
-        <v>510.05</v>
+        <v>486.03</v>
+      </c>
+      <c r="F31">
+        <v>0.74576271186440679</v>
       </c>
       <c r="G31">
-        <v>0.95</v>
+        <v>0.85365853658536583</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,22 +1093,19 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D32">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>424.38</v>
-      </c>
-      <c r="F32">
-        <v>0.96078431372549022</v>
+        <v>328.2</v>
       </c>
       <c r="G32">
-        <v>0.97959183673469385</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1113,19 +1113,22 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="D33">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E33">
-        <v>463.54</v>
+        <v>406.63</v>
+      </c>
+      <c r="F33">
+        <v>0.8571428571428571</v>
       </c>
       <c r="G33">
-        <v>0.96</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1133,22 +1136,19 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="D34">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="E34">
-        <v>526.1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>409.05</v>
       </c>
       <c r="G34">
-        <v>0.98148148148148151</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1156,19 +1156,22 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D35">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E35">
-        <v>435.84</v>
+        <v>338.36</v>
+      </c>
+      <c r="F35">
+        <v>0.92592592592592593</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0.97826086956521741</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1176,22 +1179,19 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="D36">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="E36">
-        <v>425.64</v>
-      </c>
-      <c r="F36">
-        <v>0.98245614035087714</v>
+        <v>505.89</v>
       </c>
       <c r="G36">
-        <v>0.97674418604651159</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1199,19 +1199,22 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D37">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="E37">
-        <v>488.69</v>
+        <v>411.52</v>
+      </c>
+      <c r="F37">
+        <v>0.94117647058823528</v>
       </c>
       <c r="G37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1219,22 +1222,19 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D38">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E38">
-        <v>472.94</v>
-      </c>
-      <c r="F38">
-        <v>0.96363636363636362</v>
+        <v>407.38</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1242,19 +1242,22 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D39">
-        <v>0.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E39">
-        <v>578</v>
+        <v>400.52</v>
+      </c>
+      <c r="F39">
+        <v>0.97727272727272729</v>
       </c>
       <c r="G39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1262,22 +1265,19 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D40">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E40">
-        <v>509.07</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>429.44</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,19 +1285,22 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D41">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E41">
-        <v>560.09</v>
+        <v>549.33000000000004</v>
+      </c>
+      <c r="F41">
+        <v>0.92</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1305,22 +1308,19 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D42">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E42">
-        <v>558.45000000000005</v>
-      </c>
-      <c r="F42">
-        <v>0.97826086956521741</v>
+        <v>488.4</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1328,19 +1328,22 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="D43">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="E43">
-        <v>656.44</v>
+        <v>468.26</v>
+      </c>
+      <c r="F43">
+        <v>0.96491228070175439</v>
       </c>
       <c r="G43">
-        <v>0.94</v>
+        <v>0.95348837209302328</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1348,22 +1351,19 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E44">
-        <v>629.28</v>
-      </c>
-      <c r="F44">
-        <v>0.97368421052631582</v>
+        <v>598.92999999999995</v>
       </c>
       <c r="G44">
-        <v>0.9838709677419355</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,19 +1371,22 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D45">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="E45">
-        <v>769.07</v>
+        <v>416.69</v>
+      </c>
+      <c r="F45">
+        <v>0.98113207547169812</v>
       </c>
       <c r="G45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1391,22 +1394,19 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="D46">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="E46">
-        <v>673.81</v>
-      </c>
-      <c r="F46">
-        <v>0.97674418604651159</v>
+        <v>541.53</v>
       </c>
       <c r="G46">
-        <v>0.94736842105263153</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1414,19 +1414,22 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D47">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E47">
-        <v>736.97</v>
+        <v>476.18</v>
+      </c>
+      <c r="F47">
+        <v>0.98113207547169812</v>
       </c>
       <c r="G47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1434,22 +1437,19 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>0.99</v>
       </c>
       <c r="D48">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="E48">
-        <v>674.76</v>
-      </c>
-      <c r="F48">
-        <v>0.97959183673469385</v>
+        <v>495.76</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1457,19 +1457,22 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="E49">
-        <v>848.44</v>
+        <v>484.63</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1477,22 +1480,19 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E50">
-        <v>652.57000000000005</v>
-      </c>
-      <c r="F50">
-        <v>0.95121951219512191</v>
+        <v>618.98</v>
       </c>
       <c r="G50">
-        <v>0.98305084745762716</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1500,19 +1500,22 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>0.98</v>
       </c>
       <c r="D51">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E51">
-        <v>920.38</v>
+        <v>629.15</v>
+      </c>
+      <c r="F51">
+        <v>0.97826086956521741</v>
       </c>
       <c r="G51">
-        <v>0.98</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,22 +1523,19 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C52">
         <v>0.96</v>
       </c>
       <c r="D52">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="E52">
-        <v>820.76</v>
-      </c>
-      <c r="F52">
-        <v>0.96610169491525422</v>
+        <v>682.85</v>
       </c>
       <c r="G52">
-        <v>0.95121951219512191</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,19 +1543,22 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="E53">
-        <v>806.96</v>
+        <v>652.57000000000005</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1563,22 +1566,19 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="D54">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="E54">
-        <v>881.62</v>
-      </c>
-      <c r="F54">
-        <v>0.96551724137931039</v>
+        <v>831.68</v>
       </c>
       <c r="G54">
-        <v>0.9285714285714286</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1586,19 +1586,22 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="E55">
-        <v>959.75</v>
+        <v>666.36</v>
+      </c>
+      <c r="F55">
+        <v>0.98148148148148151</v>
       </c>
       <c r="G55">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1606,22 +1609,19 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>0.97</v>
       </c>
       <c r="D56">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="E56">
-        <v>921.11</v>
-      </c>
-      <c r="F56">
-        <v>0.98113207547169812</v>
+        <v>786.81</v>
       </c>
       <c r="G56">
-        <v>0.95744680851063835</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1629,19 +1629,22 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="D57">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
       <c r="E57">
-        <v>1182.49</v>
+        <v>792.35</v>
+      </c>
+      <c r="F57">
+        <v>0.9555555555555556</v>
       </c>
       <c r="G57">
-        <v>0.93</v>
+        <v>0.98181818181818181</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,22 +1652,19 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D58">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="E58">
-        <v>1052.8900000000001</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
+        <v>761.98</v>
       </c>
       <c r="G58">
-        <v>0.96226415094339623</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1672,19 +1672,22 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="D59">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="E59">
-        <v>1117.55</v>
+        <v>921.85</v>
+      </c>
+      <c r="F59">
+        <v>0.98113207547169812</v>
       </c>
       <c r="G59">
-        <v>0.96</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1692,22 +1695,19 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D60">
-        <v>0.62</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E60">
-        <v>1141.46</v>
-      </c>
-      <c r="F60">
-        <v>0.98181818181818181</v>
+        <v>756.83</v>
       </c>
       <c r="G60">
-        <v>0.9555555555555556</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1715,19 +1715,22 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D61">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="E61">
-        <v>1070.71</v>
+        <v>828.79</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.99</v>
+        <v>0.96078431372549022</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,22 +1738,19 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D62">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="E62">
-        <v>1085.21</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
+        <v>932.22</v>
       </c>
       <c r="G62">
-        <v>0.95348837209302328</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,19 +1758,22 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="E63">
-        <v>1075.9100000000001</v>
+        <v>899.81</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1778,22 +1781,19 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="D64">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="E64">
-        <v>1139.92</v>
-      </c>
-      <c r="F64">
-        <v>0.98113207547169812</v>
+        <v>934.46</v>
       </c>
       <c r="G64">
-        <v>0.93617021276595747</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,19 +1801,22 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>0.97</v>
       </c>
       <c r="D65">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="E65">
-        <v>1123.53</v>
+        <v>835.87</v>
+      </c>
+      <c r="F65">
+        <v>0.97872340425531912</v>
       </c>
       <c r="G65">
-        <v>0.97</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1821,22 +1824,19 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="D66">
-        <v>0.88</v>
+        <v>0.49</v>
       </c>
       <c r="E66">
-        <v>1351.92</v>
-      </c>
-      <c r="F66">
-        <v>0.96078431372549022</v>
+        <v>976.81</v>
       </c>
       <c r="G66">
-        <v>0.89795918367346939</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1844,19 +1844,22 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D67">
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="E67">
-        <v>1341.52</v>
+        <v>1060.02</v>
+      </c>
+      <c r="F67">
+        <v>0.94444444444444442</v>
       </c>
       <c r="G67">
-        <v>0.98</v>
+        <v>0.97826086956521741</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1864,22 +1867,19 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="D68">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="E68">
-        <v>1187.78</v>
-      </c>
-      <c r="F68">
-        <v>0.93478260869565222</v>
+        <v>1196.1099999999999</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -1887,19 +1887,22 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="D69">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="E69">
-        <v>1498.96</v>
+        <v>1116.1300000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.92727272727272725</v>
       </c>
       <c r="G69">
-        <v>0.96</v>
+        <v>0.91111111111111109</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -1907,22 +1910,19 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="D70">
-        <v>0.91</v>
+        <v>0.69</v>
       </c>
       <c r="E70">
-        <v>1444.63</v>
-      </c>
-      <c r="F70">
-        <v>0.90909090909090906</v>
+        <v>1159.77</v>
       </c>
       <c r="G70">
-        <v>0.97777777777777775</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -1930,19 +1930,22 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D71">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="E71">
-        <v>1441.37</v>
+        <v>1156.08</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.97</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -1950,22 +1953,19 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="D72">
-        <v>1.1599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="E72">
-        <v>1717.12</v>
-      </c>
-      <c r="F72">
-        <v>0.96</v>
+        <v>1156.8800000000001</v>
       </c>
       <c r="G72">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -1973,19 +1973,22 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="D73">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="E73">
-        <v>1675.75</v>
+        <v>1420.28</v>
+      </c>
+      <c r="F73">
+        <v>0.9555555555555556</v>
       </c>
       <c r="G73">
-        <v>0.97</v>
+        <v>0.94545454545454544</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,22 +1996,19 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C74">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D74">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="E74">
-        <v>1614.09</v>
-      </c>
-      <c r="F74">
-        <v>0.91304347826086951</v>
+        <v>1292.54</v>
       </c>
       <c r="G74">
-        <v>0.98148148148148151</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,19 +2016,22 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C75">
+        <v>0.93</v>
+      </c>
+      <c r="D75">
         <v>0.94</v>
       </c>
-      <c r="D75">
-        <v>1.01</v>
-      </c>
       <c r="E75">
-        <v>1601.1</v>
+        <v>1431.38</v>
+      </c>
+      <c r="F75">
+        <v>0.89795918367346939</v>
       </c>
       <c r="G75">
-        <v>0.94</v>
+        <v>0.96078431372549022</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2036,22 +2039,19 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="D76">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="E76">
-        <v>1829.22</v>
-      </c>
-      <c r="F76">
-        <v>0.91304347826086951</v>
+        <v>1274.47</v>
       </c>
       <c r="G76">
-        <v>0.96296296296296291</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2059,19 +2059,22 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>0.94</v>
       </c>
       <c r="D77">
-        <v>1.1100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E77">
-        <v>1657.65</v>
+        <v>1555.1</v>
+      </c>
+      <c r="F77">
+        <v>0.94339622641509435</v>
       </c>
       <c r="G77">
-        <v>0.94</v>
+        <v>0.93617021276595747</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2079,22 +2082,19 @@
         <v>2</v>
       </c>
       <c r="B78">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D78">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>1992.53</v>
-      </c>
-      <c r="F78">
-        <v>0.90909090909090906</v>
+        <v>1530.87</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2102,19 +2102,22 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D79">
-        <v>1.61</v>
+        <v>0.83</v>
       </c>
       <c r="E79">
-        <v>2100.6799999999998</v>
+        <v>1377.79</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.97</v>
+        <v>0.96721311475409832</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2122,22 +2125,19 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C80">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="D80">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E80">
-        <v>1733.36</v>
-      </c>
-      <c r="F80">
-        <v>0.95744680851063835</v>
+        <v>1681.1</v>
       </c>
       <c r="G80">
-        <v>0.96226415094339623</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2145,19 +2145,22 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C81">
+        <v>0.97</v>
+      </c>
+      <c r="D81">
         <v>0.95</v>
       </c>
-      <c r="D81">
-        <v>1.54</v>
-      </c>
       <c r="E81">
-        <v>1988.03</v>
+        <v>1523.52</v>
+      </c>
+      <c r="F81">
+        <v>0.96153846153846156</v>
       </c>
       <c r="G81">
-        <v>0.95</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2165,22 +2168,19 @@
         <v>2</v>
       </c>
       <c r="B82">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="D82">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>2005.84</v>
-      </c>
-      <c r="F82">
-        <v>0.87037037037037035</v>
+        <v>1544.42</v>
       </c>
       <c r="G82">
-        <v>0.91304347826086951</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2188,19 +2188,22 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="D83">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="E83">
-        <v>2332.6799999999998</v>
+        <v>1927.71</v>
+      </c>
+      <c r="F83">
+        <v>0.88888888888888884</v>
       </c>
       <c r="G83">
-        <v>0.87</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2208,22 +2211,19 @@
         <v>2</v>
       </c>
       <c r="B84">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D84">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="E84">
-        <v>1965.1</v>
-      </c>
-      <c r="F84">
-        <v>0.91379310344827591</v>
+        <v>1837.94</v>
       </c>
       <c r="G84">
-        <v>0.95238095238095233</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2231,19 +2231,22 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C85">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="D85">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="E85">
-        <v>1969.08</v>
+        <v>1834.55</v>
+      </c>
+      <c r="F85">
+        <v>0.96078431372549022</v>
       </c>
       <c r="G85">
-        <v>0.95</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2251,22 +2254,19 @@
         <v>2</v>
       </c>
       <c r="B86">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="D86">
-        <v>2.0299999999999998</v>
+        <v>1.43</v>
       </c>
       <c r="E86">
-        <v>2515.16</v>
-      </c>
-      <c r="F86">
-        <v>0.89473684210526316</v>
+        <v>1829.98</v>
       </c>
       <c r="G86">
-        <v>0.93023255813953487</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2274,19 +2274,22 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="D87">
-        <v>2.06</v>
+        <v>1.44</v>
       </c>
       <c r="E87">
-        <v>2512.73</v>
+        <v>1946.29</v>
+      </c>
+      <c r="F87">
+        <v>0.98148148148148151</v>
       </c>
       <c r="G87">
-        <v>0.95</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2294,22 +2297,19 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>0.9</v>
       </c>
       <c r="D88">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="E88">
-        <v>2550.08</v>
-      </c>
-      <c r="F88">
-        <v>0.94827586206896552</v>
+        <v>2022.01</v>
       </c>
       <c r="G88">
-        <v>0.83333333333333337</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2317,19 +2317,22 @@
         <v>2</v>
       </c>
       <c r="B89">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="D89">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="E89">
-        <v>2408.4</v>
+        <v>1781.48</v>
+      </c>
+      <c r="F89">
+        <v>0.93617021276595747</v>
       </c>
       <c r="G89">
-        <v>0.89</v>
+        <v>0.98113207547169812</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2337,22 +2340,19 @@
         <v>2</v>
       </c>
       <c r="B90">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <v>0.92</v>
       </c>
       <c r="D90">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="E90">
-        <v>2213.48</v>
-      </c>
-      <c r="F90">
-        <v>0.95744680851063835</v>
+        <v>1859.38</v>
       </c>
       <c r="G90">
-        <v>0.8867924528301887</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2360,19 +2360,22 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C91">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="D91">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="E91">
-        <v>2456.7800000000002</v>
+        <v>2449.7600000000002</v>
+      </c>
+      <c r="F91">
+        <v>0.84444444444444444</v>
       </c>
       <c r="G91">
-        <v>0.93</v>
+        <v>0.94545454545454544</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,22 +2383,19 @@
         <v>2</v>
       </c>
       <c r="B92">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C92">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="D92">
-        <v>2.25</v>
+        <v>1.99</v>
       </c>
       <c r="E92">
-        <v>2799.89</v>
-      </c>
-      <c r="F92">
-        <v>0.86956521739130432</v>
+        <v>2400.16</v>
       </c>
       <c r="G92">
-        <v>0.81481481481481477</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2403,19 +2403,22 @@
         <v>2</v>
       </c>
       <c r="B93">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C93">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="D93">
-        <v>2.34</v>
+        <v>1.59</v>
       </c>
       <c r="E93">
-        <v>2883.47</v>
+        <v>2065.65</v>
+      </c>
+      <c r="F93">
+        <v>0.94</v>
       </c>
       <c r="G93">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2423,22 +2426,19 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="D94">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="E94">
-        <v>2952.73</v>
-      </c>
-      <c r="F94">
-        <v>0.81481481481481477</v>
+        <v>2004.64</v>
       </c>
       <c r="G94">
-        <v>0.84782608695652173</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2446,1443 +2446,5462 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C95">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="D95">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="E95">
-        <v>2483.4699999999998</v>
+        <v>2267.4699999999998</v>
+      </c>
+      <c r="F95">
+        <v>0.92307692307692313</v>
       </c>
       <c r="G95">
-        <v>0.91</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="E96">
-        <v>247.09</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
+        <v>2426.1799999999998</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D97">
-        <v>0.01</v>
+        <v>1.98</v>
       </c>
       <c r="E97">
-        <v>352.34</v>
+        <v>2486.92</v>
+      </c>
+      <c r="F97">
+        <v>0.89830508474576276</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0.82926829268292679</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D98">
-        <v>0.03</v>
+        <v>1.74</v>
       </c>
       <c r="E98">
-        <v>487</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
+        <v>2306.92</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D99">
-        <v>0.01</v>
+        <v>2.15</v>
       </c>
       <c r="E99">
-        <v>572.71</v>
+        <v>2672.69</v>
+      </c>
+      <c r="F99">
+        <v>0.84482758620689657</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="D100">
-        <v>0.08</v>
+        <v>1.56</v>
       </c>
       <c r="E100">
-        <v>779.78</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
+        <v>2101.5700000000002</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="D101">
-        <v>0.12</v>
+        <v>1.91</v>
       </c>
       <c r="E101">
-        <v>932.75</v>
+        <v>2425.48</v>
+      </c>
+      <c r="F101">
+        <v>0.91111111111111109</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0.92727272727272725</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="D102">
-        <v>1.05</v>
+        <v>2.74</v>
       </c>
       <c r="E102">
-        <v>1179.52</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
+        <v>3247.71</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D103">
-        <v>1.0900000000000001</v>
+        <v>2.02</v>
       </c>
       <c r="E103">
-        <v>1437.85</v>
+        <v>2552.09</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D104">
-        <v>1.23</v>
+        <v>2.77</v>
       </c>
       <c r="E104">
-        <v>1808.18</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
+        <v>3265.35</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D105">
-        <v>1.34</v>
+        <v>2.46</v>
       </c>
       <c r="E105">
-        <v>2127.85</v>
+        <v>3006.68</v>
+      </c>
+      <c r="F105">
+        <v>0.88</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D106">
-        <v>2.1800000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="E106">
-        <v>2498.0300000000002</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
+        <v>3263.06</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="D107">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="E107">
-        <v>2819.07</v>
+        <v>2930.51</v>
+      </c>
+      <c r="F107">
+        <v>0.86</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="D108">
-        <v>3.13</v>
+        <v>2.56</v>
       </c>
       <c r="E108">
-        <v>3457.24</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
+        <v>3050.07</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="D109">
-        <v>3.36</v>
+        <v>2.96</v>
       </c>
       <c r="E109">
-        <v>3919.4</v>
+        <v>3457.73</v>
+      </c>
+      <c r="F109">
+        <v>0.86792452830188682</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0.80851063829787229</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="D110">
-        <v>4.22</v>
+        <v>3.01</v>
       </c>
       <c r="E110">
-        <v>4571.1099999999997</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
+        <v>3580.27</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D111">
-        <v>4.8499999999999996</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E111">
-        <v>5427.41</v>
+        <v>3090.86</v>
+      </c>
+      <c r="F111">
+        <v>0.91666666666666663</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0.82692307692307687</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D112">
-        <v>5.46</v>
+        <v>3.23</v>
       </c>
       <c r="E112">
-        <v>5786.52</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
+        <v>3836.18</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="D113">
-        <v>6.34</v>
+        <v>2.81</v>
       </c>
       <c r="E113">
-        <v>6921.65</v>
+        <v>3377.27</v>
+      </c>
+      <c r="F113">
+        <v>0.82692307692307687</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D114">
-        <v>6.91</v>
+        <v>2.73</v>
       </c>
       <c r="E114">
-        <v>7414.69</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
+        <v>3348.81</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D115">
-        <v>7.55</v>
+        <v>3.03</v>
       </c>
       <c r="E115">
-        <v>7993.19</v>
+        <v>3624.29</v>
+      </c>
+      <c r="F115">
+        <v>0.88235294117647056</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0.77551020408163263</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="D116">
-        <v>8.59</v>
+        <v>3.42</v>
       </c>
       <c r="E116">
-        <v>9011.9500000000007</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
+        <v>3998.34</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B117">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D117">
-        <v>9.2899999999999991</v>
+        <v>3.23</v>
       </c>
       <c r="E117">
-        <v>9813.68</v>
+        <v>3872.66</v>
+      </c>
+      <c r="F117">
+        <v>0.74509803921568629</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0.89795918367346939</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D118">
-        <v>10.39</v>
+        <v>3.23</v>
       </c>
       <c r="E118">
-        <v>10940.53</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
+        <v>3844.34</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="D119">
-        <v>11.4</v>
+        <v>3.33</v>
       </c>
       <c r="E119">
-        <v>11937.02</v>
+        <v>3941.66</v>
+      </c>
+      <c r="F119">
+        <v>0.8</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0.76363636363636367</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B120">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D120">
-        <v>12.33</v>
+        <v>3.99</v>
       </c>
       <c r="E120">
-        <v>12876.47</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
+        <v>4575.82</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B121">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="D121">
-        <v>13.63</v>
+        <v>4.49</v>
       </c>
       <c r="E121">
-        <v>14207.9</v>
+        <v>5039.62</v>
+      </c>
+      <c r="F121">
+        <v>0.79245283018867929</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0.61702127659574468</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="D122">
-        <v>14.91</v>
+        <v>3.77</v>
       </c>
       <c r="E122">
-        <v>15453.85</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
+        <v>4442.5200000000004</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D123">
-        <v>16.329999999999998</v>
+        <v>3.82</v>
       </c>
       <c r="E123">
-        <v>16841.82</v>
+        <v>4484.05</v>
+      </c>
+      <c r="F123">
+        <v>0.7142857142857143</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0.86274509803921573</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D124">
-        <v>17.260000000000002</v>
+        <v>4.37</v>
       </c>
       <c r="E124">
-        <v>17735.5</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
+        <v>4950.3900000000003</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B125">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D125">
-        <v>19.8</v>
+        <v>3.66</v>
       </c>
       <c r="E125">
-        <v>20337.419999999998</v>
+        <v>4260.67</v>
+      </c>
+      <c r="F125">
+        <v>0.87179487179487181</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0.80327868852459017</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D126">
-        <v>20.97</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E126">
-        <v>21490.09</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
+        <v>4991.68</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="D127">
-        <v>22.14</v>
+        <v>4.24</v>
       </c>
       <c r="E127">
-        <v>22666.16</v>
+        <v>4760.66</v>
+      </c>
+      <c r="F127">
+        <v>0.84</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D128">
-        <v>24.67</v>
+        <v>4.75</v>
       </c>
       <c r="E128">
-        <v>25119.01</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
+        <v>5238.49</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D129">
-        <v>26.86</v>
+        <v>4.05</v>
       </c>
       <c r="E129">
-        <v>27332.12</v>
+        <v>4566.12</v>
+      </c>
+      <c r="F129">
+        <v>0.875</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="D130">
-        <v>28.4</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E130">
-        <v>28896.2</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
+        <v>5362.15</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D131">
-        <v>30.8</v>
+        <v>4.93</v>
       </c>
       <c r="E131">
-        <v>31288.86</v>
+        <v>5385.95</v>
+      </c>
+      <c r="F131">
+        <v>0.79166666666666663</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D132">
-        <v>32.950000000000003</v>
+        <v>4.84</v>
       </c>
       <c r="E132">
-        <v>33463.31</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
+        <v>5248.97</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="D133">
-        <v>44.59</v>
+        <v>5.19</v>
       </c>
       <c r="E133">
-        <v>45102.52</v>
+        <v>5644.84</v>
+      </c>
+      <c r="F133">
+        <v>0.77777777777777779</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0.76363636363636367</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D134">
-        <v>47.14</v>
+        <v>5.41</v>
       </c>
       <c r="E134">
-        <v>47699.25</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
+        <v>5852.86</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D135">
-        <v>51.09</v>
+        <v>4.82</v>
       </c>
       <c r="E135">
-        <v>51553.2</v>
+        <v>5213.01</v>
+      </c>
+      <c r="F135">
+        <v>0.8</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B136">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="D136">
-        <v>53.36</v>
+        <v>4.87</v>
       </c>
       <c r="E136">
-        <v>53863.94</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
+        <v>5311.53</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="D137">
-        <v>60.97</v>
+        <v>6.04</v>
       </c>
       <c r="E137">
-        <v>61489.86</v>
+        <v>6468.27</v>
+      </c>
+      <c r="F137">
+        <v>0.62264150943396224</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0.72340425531914898</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="E138">
-        <v>3.73</v>
+        <v>5883.16</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="D139">
-        <v>0.05</v>
+        <v>5.28</v>
       </c>
       <c r="E139">
-        <v>199.02</v>
+        <v>5698.99</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.77192982456140347</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="D140">
-        <v>0.11</v>
+        <v>5.58</v>
       </c>
       <c r="E140">
-        <v>543.66</v>
+        <v>6009.53</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="D141">
-        <v>1.1599999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="E141">
-        <v>1599.61</v>
+        <v>6203.61</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.78723404255319152</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D142">
-        <v>0.77</v>
+        <v>5.91</v>
       </c>
       <c r="E142">
-        <v>1290.1300000000001</v>
+        <v>6387.76</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="D143">
-        <v>3.52</v>
+        <v>5.74</v>
       </c>
       <c r="E143">
-        <v>4035.77</v>
+        <v>6177.42</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.82456140350877194</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0.69767441860465118</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="D144">
-        <v>4.71</v>
+        <v>5.52</v>
       </c>
       <c r="E144">
-        <v>5221.18</v>
+        <v>5965.01</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D145">
-        <v>3.65</v>
+        <v>6.32</v>
       </c>
       <c r="E145">
-        <v>4075.92</v>
+        <v>6762.45</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0.74468085106382975</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D146">
-        <v>5.91</v>
+        <v>5.67</v>
       </c>
       <c r="E146">
-        <v>6403.28</v>
+        <v>6100.43</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="D147">
-        <v>8.33</v>
+        <v>6.08</v>
       </c>
       <c r="E147">
-        <v>8864.33</v>
+        <v>6511.08</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="D148">
-        <v>15.73</v>
+        <v>6.71</v>
       </c>
       <c r="E148">
-        <v>16247.19</v>
+        <v>7212.19</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="D149">
-        <v>18.91</v>
+        <v>7.01</v>
       </c>
       <c r="E149">
-        <v>19397.580000000002</v>
+        <v>7479.25</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0.70909090909090911</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="D150">
-        <v>32.130000000000003</v>
+        <v>6.99</v>
       </c>
       <c r="E150">
-        <v>32636.23</v>
+        <v>7476.75</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="D151">
-        <v>36.51</v>
+        <v>6.19</v>
       </c>
       <c r="E151">
-        <v>37025.49</v>
+        <v>6699.21</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.67241379310344829</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D152">
-        <v>68.25</v>
+        <v>6.9</v>
       </c>
       <c r="E152">
-        <v>68734.399999999994</v>
+        <v>7365.04</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="D153">
-        <v>65.510000000000005</v>
+        <v>7.61</v>
       </c>
       <c r="E153">
-        <v>66042.33</v>
+        <v>8043.75</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="D154">
-        <v>100.4</v>
+        <v>6.76</v>
       </c>
       <c r="E154">
-        <v>100900.97</v>
+        <v>7226.88</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="D155">
-        <v>109.12</v>
+        <v>7.42</v>
       </c>
       <c r="E155">
-        <v>109618.57</v>
+        <v>7907.3</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="D156">
-        <v>163.80000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="E156">
-        <v>164305.07</v>
+        <v>8328.9500000000007</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="D157">
-        <v>175.28</v>
+        <v>8.31</v>
       </c>
       <c r="E157">
-        <v>175711.74</v>
+        <v>8805.91</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="D158">
-        <v>235.27</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E158">
-        <v>235758.38</v>
+        <v>9088.74</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="D159">
-        <v>273.67</v>
+        <v>7.82</v>
       </c>
       <c r="E159">
-        <v>274156.73</v>
+        <v>8305.73</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0.59615384615384615</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D160">
-        <v>339.25</v>
+        <v>7.69</v>
       </c>
       <c r="E160">
-        <v>339731.13</v>
+        <v>8176.02</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D161">
+        <v>8.02</v>
+      </c>
+      <c r="E161">
+        <v>8522.94</v>
+      </c>
+      <c r="F161">
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="G161">
+        <v>0.49056603773584911</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>0.62</v>
+      </c>
+      <c r="D162">
+        <v>8.89</v>
+      </c>
+      <c r="E162">
+        <v>9381.85</v>
+      </c>
+      <c r="G162">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>0.63</v>
+      </c>
+      <c r="D163">
+        <v>8.6</v>
+      </c>
+      <c r="E163">
+        <v>9098.26</v>
+      </c>
+      <c r="F163">
+        <v>0.54761904761904767</v>
+      </c>
+      <c r="G163">
+        <v>0.68965517241379315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D164">
+        <v>8.35</v>
+      </c>
+      <c r="E164">
+        <v>8863.68</v>
+      </c>
+      <c r="G164">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D165">
+        <v>9.32</v>
+      </c>
+      <c r="E165">
+        <v>9822.41</v>
+      </c>
+      <c r="F165">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G165">
+        <v>0.56818181818181823</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>0.68</v>
+      </c>
+      <c r="D166">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E166">
+        <v>9235.81</v>
+      </c>
+      <c r="G166">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>0.46</v>
+      </c>
+      <c r="D167">
+        <v>9.86</v>
+      </c>
+      <c r="E167">
+        <v>10360.69</v>
+      </c>
+      <c r="F167">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G167">
+        <v>0.48333333333333328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>0.52</v>
+      </c>
+      <c r="D168">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E168">
+        <v>10417.379999999999</v>
+      </c>
+      <c r="G168">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>0.52</v>
+      </c>
+      <c r="D169">
+        <v>9.42</v>
+      </c>
+      <c r="E169">
+        <v>9930.9599999999991</v>
+      </c>
+      <c r="F169">
+        <v>0.5</v>
+      </c>
+      <c r="G169">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>0.54</v>
+      </c>
+      <c r="D170">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E170">
+        <v>10064.32</v>
+      </c>
+      <c r="G170">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>0.51</v>
+      </c>
+      <c r="D171">
+        <v>10.55</v>
+      </c>
+      <c r="E171">
+        <v>11098.54</v>
+      </c>
+      <c r="F171">
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="G171">
+        <v>0.44897959183673469</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>0.62</v>
+      </c>
+      <c r="D172">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E172">
+        <v>9426.59</v>
+      </c>
+      <c r="G172">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>0.59</v>
+      </c>
+      <c r="D173">
+        <v>10.01</v>
+      </c>
+      <c r="E173">
+        <v>10566.55</v>
+      </c>
+      <c r="F173">
+        <v>0.56603773584905659</v>
+      </c>
+      <c r="G173">
+        <v>0.61702127659574468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>0.47</v>
+      </c>
+      <c r="D174">
+        <v>10.54</v>
+      </c>
+      <c r="E174">
+        <v>11038.12</v>
+      </c>
+      <c r="G174">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>0.53</v>
+      </c>
+      <c r="D175">
+        <v>10.9</v>
+      </c>
+      <c r="E175">
+        <v>11411.62</v>
+      </c>
+      <c r="F175">
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="G175">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>0.54</v>
+      </c>
+      <c r="D176">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E176">
+        <v>10563.8</v>
+      </c>
+      <c r="G176">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>0.51</v>
+      </c>
+      <c r="D177">
+        <v>10.34</v>
+      </c>
+      <c r="E177">
+        <v>10911.29</v>
+      </c>
+      <c r="F177">
+        <v>0.5</v>
+      </c>
+      <c r="G177">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>0.62</v>
+      </c>
+      <c r="D178">
+        <v>9.73</v>
+      </c>
+      <c r="E178">
+        <v>10320.32</v>
+      </c>
+      <c r="G178">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>0.52</v>
+      </c>
+      <c r="D179">
+        <v>10.84</v>
+      </c>
+      <c r="E179">
+        <v>11350.51</v>
+      </c>
+      <c r="F179">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="G179">
+        <v>0.52727272727272723</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D180">
+        <v>10.28</v>
+      </c>
+      <c r="E180">
+        <v>10789.54</v>
+      </c>
+      <c r="G180">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>0.5</v>
+      </c>
+      <c r="D181">
+        <v>10.84</v>
+      </c>
+      <c r="E181">
+        <v>11429.24</v>
+      </c>
+      <c r="F181">
+        <v>0.49019607843137247</v>
+      </c>
+      <c r="G181">
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>0.54</v>
+      </c>
+      <c r="D182">
+        <v>11.6</v>
+      </c>
+      <c r="E182">
+        <v>12087.08</v>
+      </c>
+      <c r="G182">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D183">
+        <v>11.54</v>
+      </c>
+      <c r="E183">
+        <v>12078.71</v>
+      </c>
+      <c r="F183">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G183">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>0.59</v>
+      </c>
+      <c r="D184">
+        <v>10.9</v>
+      </c>
+      <c r="E184">
+        <v>11480.97</v>
+      </c>
+      <c r="G184">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>0.49</v>
+      </c>
+      <c r="D185">
+        <v>11.88</v>
+      </c>
+      <c r="E185">
+        <v>12436.1</v>
+      </c>
+      <c r="F185">
+        <v>0.48214285714285721</v>
+      </c>
+      <c r="G185">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D186">
+        <v>11.29</v>
+      </c>
+      <c r="E186">
+        <v>11837.82</v>
+      </c>
+      <c r="G186">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D187">
+        <v>11.1</v>
+      </c>
+      <c r="E187">
+        <v>11605.54</v>
+      </c>
+      <c r="F187">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="G187">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>0.6</v>
+      </c>
+      <c r="D188">
+        <v>11.33</v>
+      </c>
+      <c r="E188">
+        <v>11867.25</v>
+      </c>
+      <c r="G188">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>0.44</v>
+      </c>
+      <c r="D189">
+        <v>12.44</v>
+      </c>
+      <c r="E189">
+        <v>12959.84</v>
+      </c>
+      <c r="F189">
+        <v>0.32608695652173908</v>
+      </c>
+      <c r="G189">
+        <v>0.53703703703703709</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>0.42</v>
+      </c>
+      <c r="D190">
+        <v>12.98</v>
+      </c>
+      <c r="E190">
+        <v>13523.94</v>
+      </c>
+      <c r="G190">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>0.49</v>
+      </c>
+      <c r="D191">
+        <v>12.7</v>
+      </c>
+      <c r="E191">
+        <v>13183.96</v>
+      </c>
+      <c r="F191">
+        <v>0.46938775510204078</v>
+      </c>
+      <c r="G191">
+        <v>0.50980392156862742</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>0.37</v>
+      </c>
+      <c r="D192">
+        <v>13.45</v>
+      </c>
+      <c r="E192">
+        <v>13972.02</v>
+      </c>
+      <c r="G192">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>0.39</v>
+      </c>
+      <c r="D193">
+        <v>14.03</v>
+      </c>
+      <c r="E193">
+        <v>14510.93</v>
+      </c>
+      <c r="F193">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="G193">
+        <v>0.36956521739130432</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>0.48</v>
+      </c>
+      <c r="D194">
+        <v>13.72</v>
+      </c>
+      <c r="E194">
+        <v>14176.04</v>
+      </c>
+      <c r="G194">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>0.47</v>
+      </c>
+      <c r="D195">
+        <v>13.33</v>
+      </c>
+      <c r="E195">
+        <v>13853.55</v>
+      </c>
+      <c r="F195">
+        <v>0.4375</v>
+      </c>
+      <c r="G195">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>0.38</v>
+      </c>
+      <c r="D196">
+        <v>13.79</v>
+      </c>
+      <c r="E196">
+        <v>14257.64</v>
+      </c>
+      <c r="G196">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>0.51</v>
+      </c>
+      <c r="D197">
+        <v>12.76</v>
+      </c>
+      <c r="E197">
+        <v>13221.4</v>
+      </c>
+      <c r="F197">
+        <v>0.48076923076923078</v>
+      </c>
+      <c r="G197">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>0.44</v>
+      </c>
+      <c r="D198">
+        <v>14.3</v>
+      </c>
+      <c r="E198">
+        <v>14695.07</v>
+      </c>
+      <c r="G198">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>0.48</v>
+      </c>
+      <c r="D199">
+        <v>14.1</v>
+      </c>
+      <c r="E199">
+        <v>14521.41</v>
+      </c>
+      <c r="F199">
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="G199">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>0.37</v>
+      </c>
+      <c r="D200">
+        <v>15.07</v>
+      </c>
+      <c r="E200">
+        <v>15533.45</v>
+      </c>
+      <c r="G200">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>3</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>2.98</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>9.43</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>15.76</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="B204">
         <v>4</v>
       </c>
-      <c r="B161">
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>26.25</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>555.29</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>3</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0.99</v>
+      </c>
+      <c r="E206">
+        <v>1661.14</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E207">
+        <v>2982.54</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>255.97</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209">
+        <v>9</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>338.7</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>437.45</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0.01</v>
+      </c>
+      <c r="E211">
+        <v>565.83000000000004</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>3</v>
+      </c>
+      <c r="B212">
+        <v>12</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0.01</v>
+      </c>
+      <c r="E212">
+        <v>725.33</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>3</v>
+      </c>
+      <c r="B213">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0.08</v>
+      </c>
+      <c r="E213">
+        <v>899.85</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214">
+        <v>14</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1.03</v>
+      </c>
+      <c r="E214">
+        <v>1133.31</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <v>15</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1333.27</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="B216">
+        <v>16</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1590.26</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217">
+        <v>17</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E217">
+        <v>1917.5</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218">
+        <v>18</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E218">
+        <v>2238.9699999999998</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219">
+        <v>19</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E219">
+        <v>2704.17</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220">
+        <v>20</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>2.64</v>
+      </c>
+      <c r="E220">
+        <v>3122.69</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221">
+        <v>21</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>3.04</v>
+      </c>
+      <c r="E221">
+        <v>3588.97</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222">
+        <v>22</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>3.59</v>
+      </c>
+      <c r="E222">
+        <v>4054.93</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223">
+        <v>23</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>4.18</v>
+      </c>
+      <c r="E223">
+        <v>4752.53</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224">
         <v>24</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>340.97</v>
-      </c>
-      <c r="E161">
-        <v>341468.2</v>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>5.04</v>
+      </c>
+      <c r="E224">
+        <v>5267.55</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>25</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>5.34</v>
+      </c>
+      <c r="E225">
+        <v>6020.19</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226">
+        <v>26</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>6.07</v>
+      </c>
+      <c r="E226">
+        <v>6595.83</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>3</v>
+      </c>
+      <c r="B227">
+        <v>27</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>7.01</v>
+      </c>
+      <c r="E227">
+        <v>7302.39</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>7.78</v>
+      </c>
+      <c r="E228">
+        <v>8351.3799999999992</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>29</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>8.42</v>
+      </c>
+      <c r="E229">
+        <v>9038.3700000000008</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>30</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>9.36</v>
+      </c>
+      <c r="E230">
+        <v>9981.27</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231">
+        <v>31</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>10.29</v>
+      </c>
+      <c r="E231">
+        <v>10910.12</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>32</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>11.19</v>
+      </c>
+      <c r="E232">
+        <v>11833.43</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233">
+        <v>33</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>12.31</v>
+      </c>
+      <c r="E233">
+        <v>12900.23</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>34</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>13.63</v>
+      </c>
+      <c r="E234">
+        <v>14074.37</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>3</v>
+      </c>
+      <c r="B235">
+        <v>35</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>14.95</v>
+      </c>
+      <c r="E235">
+        <v>15270.33</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>36</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>16.66</v>
+      </c>
+      <c r="E236">
+        <v>17160.349999999999</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237">
+        <v>37</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>17.57</v>
+      </c>
+      <c r="E237">
+        <v>18166.52</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238">
+        <v>38</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>18.97</v>
+      </c>
+      <c r="E238">
+        <v>19410.48</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239">
+        <v>39</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>20.65</v>
+      </c>
+      <c r="E239">
+        <v>21283.15</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240">
+        <v>40</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>26.75</v>
+      </c>
+      <c r="E240">
+        <v>27238.21</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241">
+        <v>41</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>28.87</v>
+      </c>
+      <c r="E241">
+        <v>29338.86</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242">
+        <v>42</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>30.87</v>
+      </c>
+      <c r="E242">
+        <v>31277.66</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243">
+        <v>43</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>32.81</v>
+      </c>
+      <c r="E243">
+        <v>33384.949999999997</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244">
+        <v>44</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>35.36</v>
+      </c>
+      <c r="E244">
+        <v>35863.67</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245">
+        <v>45</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>38.17</v>
+      </c>
+      <c r="E245">
+        <v>38640.15</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246">
+        <v>46</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>39.85</v>
+      </c>
+      <c r="E246">
+        <v>40369.42</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>47</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>42.13</v>
+      </c>
+      <c r="E247">
+        <v>42652.38</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248">
+        <v>48</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>45.96</v>
+      </c>
+      <c r="E248">
+        <v>46466.55</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>49</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>47.92</v>
+      </c>
+      <c r="E249">
+        <v>48446.28</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>51.01</v>
+      </c>
+      <c r="E250">
+        <v>51521.58</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251">
+        <v>51</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>55.15</v>
+      </c>
+      <c r="E251">
+        <v>55687.03</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252">
+        <v>52</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>57.85</v>
+      </c>
+      <c r="E252">
+        <v>58313.24</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253">
+        <v>53</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E253">
+        <v>66083.86</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>54</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>66.56</v>
+      </c>
+      <c r="E254">
+        <v>67071.11</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255">
+        <v>55</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>74.94</v>
+      </c>
+      <c r="E255">
+        <v>75444.11</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256">
+        <v>56</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>97.29</v>
+      </c>
+      <c r="E256">
+        <v>97757.29</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257">
+        <v>57</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>99.57</v>
+      </c>
+      <c r="E257">
+        <v>100072.93</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258">
+        <v>58</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>85.82</v>
+      </c>
+      <c r="E258">
+        <v>86287.54</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259">
+        <v>59</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>87.07</v>
+      </c>
+      <c r="E259">
+        <v>87508.68</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260">
+        <v>60</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>91.08</v>
+      </c>
+      <c r="E260">
+        <v>91603.43</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>61</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>97.89</v>
+      </c>
+      <c r="E261">
+        <v>98375.88</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262">
+        <v>62</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>103.46</v>
+      </c>
+      <c r="E262">
+        <v>103974.77</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263">
+        <v>63</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>110.39</v>
+      </c>
+      <c r="E263">
+        <v>110925.99</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264">
+        <v>64</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>111.95</v>
+      </c>
+      <c r="E264">
+        <v>112474.05</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265">
+        <v>65</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>119.22</v>
+      </c>
+      <c r="E265">
+        <v>119746.41</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266">
+        <v>66</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>122.77</v>
+      </c>
+      <c r="E266">
+        <v>123316.36</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267">
+        <v>67</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>131.41999999999999</v>
+      </c>
+      <c r="E267">
+        <v>131989.70000000001</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268">
+        <v>68</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>140.94</v>
+      </c>
+      <c r="E268">
+        <v>141380.12</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269">
+        <v>69</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>146.97</v>
+      </c>
+      <c r="E269">
+        <v>147451.46</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270">
+        <v>70</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>150.66</v>
+      </c>
+      <c r="E270">
+        <v>151189.07999999999</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271">
+        <v>71</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>163.19</v>
+      </c>
+      <c r="E271">
+        <v>163671.67999999999</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272">
+        <v>72</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>172.55</v>
+      </c>
+      <c r="E272">
+        <v>173010.44</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273">
+        <v>73</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>171.62</v>
+      </c>
+      <c r="E273">
+        <v>172102.37</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274">
+        <v>74</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>187.86</v>
+      </c>
+      <c r="E274">
+        <v>188361.48</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>3</v>
+      </c>
+      <c r="B275">
+        <v>75</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>192.88</v>
+      </c>
+      <c r="E275">
+        <v>193382.01</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <v>76</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>202.41</v>
+      </c>
+      <c r="E276">
+        <v>202900.09</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>77</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>209.5</v>
+      </c>
+      <c r="E277">
+        <v>209970.51</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278">
+        <v>78</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>229.52</v>
+      </c>
+      <c r="E278">
+        <v>229991.42</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>3</v>
+      </c>
+      <c r="B279">
+        <v>79</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>231.38</v>
+      </c>
+      <c r="E279">
+        <v>231898.99</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>3</v>
+      </c>
+      <c r="B280">
+        <v>80</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>236.42</v>
+      </c>
+      <c r="E280">
+        <v>236918.5</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>3</v>
+      </c>
+      <c r="B281">
+        <v>81</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>252.7</v>
+      </c>
+      <c r="E281">
+        <v>253185.05</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>3</v>
+      </c>
+      <c r="B282">
+        <v>82</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>263.52999999999997</v>
+      </c>
+      <c r="E282">
+        <v>264007.24</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>83</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>269.32</v>
+      </c>
+      <c r="E283">
+        <v>269892.83</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>3</v>
+      </c>
+      <c r="B284">
+        <v>84</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>245.03</v>
+      </c>
+      <c r="E284">
+        <v>245544.08</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>85</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>250.4</v>
+      </c>
+      <c r="E285">
+        <v>250893.95</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>3</v>
+      </c>
+      <c r="B286">
+        <v>86</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>257.14</v>
+      </c>
+      <c r="E286">
+        <v>257681.49</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>3</v>
+      </c>
+      <c r="B287">
+        <v>87</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>271.76</v>
+      </c>
+      <c r="E287">
+        <v>272269.90999999997</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <v>88</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>282.26</v>
+      </c>
+      <c r="E288">
+        <v>282757.19</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>3</v>
+      </c>
+      <c r="B289">
+        <v>89</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>289.56</v>
+      </c>
+      <c r="E289">
+        <v>290065.40000000002</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>90</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>298.33</v>
+      </c>
+      <c r="E290">
+        <v>298803.7</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291">
+        <v>91</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>312.61</v>
+      </c>
+      <c r="E291">
+        <v>313135.84000000003</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292">
+        <v>92</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>330.41</v>
+      </c>
+      <c r="E292">
+        <v>330971.68</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>93</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>333.66</v>
+      </c>
+      <c r="E293">
+        <v>334123.14</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>3</v>
+      </c>
+      <c r="B294">
+        <v>94</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>344.33</v>
+      </c>
+      <c r="E294">
+        <v>344834.58</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295">
+        <v>95</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>365.06</v>
+      </c>
+      <c r="E295">
+        <v>365592.95</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>3</v>
+      </c>
+      <c r="B296">
+        <v>96</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>376.39</v>
+      </c>
+      <c r="E296">
+        <v>376842.71</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="B297">
+        <v>97</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>387.9</v>
+      </c>
+      <c r="E297">
+        <v>388431.62</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>3</v>
+      </c>
+      <c r="B298">
+        <v>98</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>396.35</v>
+      </c>
+      <c r="E298">
+        <v>396832.28</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>3</v>
+      </c>
+      <c r="B299">
+        <v>99</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>417.78</v>
+      </c>
+      <c r="E299">
+        <v>418306.57</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>4</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>4.8</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>47.06</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>4</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>141.1</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>0.01</v>
+      </c>
+      <c r="E303">
+        <v>411.27</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>4</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>12.38</v>
+      </c>
+      <c r="E304">
+        <v>12917.92</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>47.75</v>
+      </c>
+      <c r="E305">
+        <v>48222.879999999997</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>4</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>95.01</v>
+      </c>
+      <c r="E306">
+        <v>95510.59</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>4</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>2.71</v>
+      </c>
+      <c r="E307">
+        <v>3264.76</v>
+      </c>
+      <c r="F307">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>4</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>5.14</v>
+      </c>
+      <c r="E308">
+        <v>5699.33</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>4</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>7.29</v>
+      </c>
+      <c r="E309">
+        <v>7717.2</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>15.19</v>
+      </c>
+      <c r="E310">
+        <v>15635.46</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>20.14</v>
+      </c>
+      <c r="E311">
+        <v>20618.099999999999</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>4</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>25.46</v>
+      </c>
+      <c r="E312">
+        <v>25981.85</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>4</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>37.61</v>
+      </c>
+      <c r="E313">
+        <v>38127.919999999998</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>4</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>55.03</v>
+      </c>
+      <c r="E314">
+        <v>55475.040000000001</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>4</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>71.44</v>
+      </c>
+      <c r="E315">
+        <v>71907.7</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>4</v>
+      </c>
+      <c r="B316">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>94.15</v>
+      </c>
+      <c r="E316">
+        <v>94695.12</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>4</v>
+      </c>
+      <c r="B317">
+        <v>18</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="E317">
+        <v>149206.19</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>4</v>
+      </c>
+      <c r="B318">
+        <v>19</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>208.28</v>
+      </c>
+      <c r="E318">
+        <v>208808.25</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>4</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>211.07</v>
+      </c>
+      <c r="E319">
+        <v>211582.39</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>4</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>303.74</v>
+      </c>
+      <c r="E320">
+        <v>304243.62</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>4</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>411.21</v>
+      </c>
+      <c r="E321">
+        <v>411703.46</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>543.12</v>
+      </c>
+      <c r="E322">
+        <v>543643.01</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>24</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>419.69</v>
+      </c>
+      <c r="E323">
+        <v>420203.81</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>4</v>
+      </c>
+      <c r="B324">
+        <v>25</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>660.71</v>
+      </c>
+      <c r="E324">
+        <v>661180.23</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325">
+        <v>26</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>763.33</v>
+      </c>
+      <c r="E325">
+        <v>763890.74</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>4</v>
+      </c>
+      <c r="B326">
+        <v>27</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1133.6400000000001</v>
+      </c>
+      <c r="E326">
+        <v>1134154.47</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>4</v>
+      </c>
+      <c r="B327">
+        <v>28</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1264.3699999999999</v>
+      </c>
+      <c r="E327">
+        <v>1264881.6100000001</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>4</v>
+      </c>
+      <c r="B328">
+        <v>29</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1418.92</v>
+      </c>
+      <c r="E328">
+        <v>1419437.2</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>4</v>
+      </c>
+      <c r="B329">
+        <v>30</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1427.7</v>
+      </c>
+      <c r="E329">
+        <v>1428212.84</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>4</v>
+      </c>
+      <c r="B330">
+        <v>31</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1854.9</v>
+      </c>
+      <c r="E330">
+        <v>1855394.85</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>4</v>
+      </c>
+      <c r="B331">
+        <v>32</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1908.39</v>
+      </c>
+      <c r="E331">
+        <v>1908889.04</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>4</v>
+      </c>
+      <c r="B332">
+        <v>33</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>2271.2600000000002</v>
+      </c>
+      <c r="E332">
+        <v>2271716.31</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>4</v>
+      </c>
+      <c r="B333">
+        <v>34</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>2629.14</v>
+      </c>
+      <c r="E333">
+        <v>2629615.4300000002</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>4</v>
+      </c>
+      <c r="B334">
+        <v>35</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>3542.49</v>
+      </c>
+      <c r="E334">
+        <v>3543043.83</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>4</v>
+      </c>
+      <c r="B335">
+        <v>36</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>2996.17</v>
+      </c>
+      <c r="E335">
+        <v>2996658.54</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>4</v>
+      </c>
+      <c r="B336">
+        <v>37</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>3630.38</v>
+      </c>
+      <c r="E336">
+        <v>3630846.21</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>4</v>
+      </c>
+      <c r="B337">
+        <v>38</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>3630.69</v>
+      </c>
+      <c r="E337">
+        <v>3631177.95</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>4</v>
+      </c>
+      <c r="B338">
+        <v>39</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>4590.99</v>
+      </c>
+      <c r="E338">
+        <v>4591524.9800000004</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>4</v>
+      </c>
+      <c r="B339">
+        <v>40</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>4468.12</v>
+      </c>
+      <c r="E339">
+        <v>4468596.16</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>4</v>
+      </c>
+      <c r="B340">
+        <v>41</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>5150.8900000000003</v>
+      </c>
+      <c r="E340">
+        <v>5151379.7699999996</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>4</v>
+      </c>
+      <c r="B341">
+        <v>42</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>5182.2299999999996</v>
+      </c>
+      <c r="E341">
+        <v>5182775.46</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>4</v>
+      </c>
+      <c r="B342">
+        <v>43</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>6522.29</v>
+      </c>
+      <c r="E342">
+        <v>6522810.0199999996</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>4</v>
+      </c>
+      <c r="B343">
+        <v>44</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>6778.58</v>
+      </c>
+      <c r="E343">
+        <v>6779081.8899999997</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>4</v>
+      </c>
+      <c r="B344">
+        <v>45</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>8190.41</v>
+      </c>
+      <c r="E344">
+        <v>8190887.7599999998</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>4</v>
+      </c>
+      <c r="B345">
+        <v>46</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>8146.73</v>
+      </c>
+      <c r="E345">
+        <v>8147214.71</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>4</v>
+      </c>
+      <c r="B346">
+        <v>47</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>9776.2800000000007</v>
+      </c>
+      <c r="E346">
+        <v>9776831.0399999991</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>4</v>
+      </c>
+      <c r="B347">
+        <v>48</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>10036.49</v>
+      </c>
+      <c r="E347">
+        <v>10037019</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>4</v>
+      </c>
+      <c r="B348">
+        <v>49</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>10125.67</v>
+      </c>
+      <c r="E348">
+        <v>10126139.310000001</v>
+      </c>
+      <c r="G348">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G162">
-    <sortCondition ref="A1:A162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G350">
+    <sortCondition ref="A1:A350"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
